--- a/data/trans_orig/PAIS_NAC_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PAIS_NAC_R-Clase-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>País de nacimiento codificado en País Vasco</t>
+          <t>País de nacimiento codificado en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3189,7 +3189,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>País de nacimiento codificado en Andalucia</t>
+          <t>País de nacimiento codificado en Andalucia (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5832,7 +5832,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>País de nacimiento codificado en C.Valenciana</t>
+          <t>País de nacimiento codificado en C.Valenciana (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8475,7 +8475,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>País de nacimiento codificado en Barcelona</t>
+          <t>País de nacimiento codificado en Barcelona (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
